--- a/DOWNLOADS/RESULTADO_metadados/categoria_GEMINI.xlsx
+++ b/DOWNLOADS/RESULTADO_metadados/categoria_GEMINI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/RESULTADO_metadados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_5EA1C1E46E9B8830FB2C4CF0BD2E16617973F31D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC710D94-CC64-4589-BA68-A34CD28D5C04}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_5EA1C1E46E9B8830FB2C4CF0BD2E16617973F31D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8411E94-67ED-40C9-B66D-F4E81B771C93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12882,7 +12882,7 @@
   <dimension ref="A1:G1360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E1362" sqref="E1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
